--- a/labels/all_labels.xlsx
+++ b/labels/all_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\胃部病理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F660170-DC62-493C-80CD-519F88C4C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B091611-67A1-47FC-9864-83D16773A72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B808B17B-0971-4D1B-9E8E-7197F1E60F2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="483">
   <si>
     <t>姓名</t>
   </si>
@@ -886,9 +886,6 @@
     <t>S201801315</t>
   </si>
   <si>
-    <t>S201801712</t>
-  </si>
-  <si>
     <t>S201801835</t>
   </si>
   <si>
@@ -1469,6 +1466,16 @@
   </si>
   <si>
     <t>S202220887</t>
+  </si>
+  <si>
+    <t>S201801721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S202209819</t>
+  </si>
+  <si>
+    <t>S202212852</t>
   </si>
 </sst>
 </file>
@@ -1875,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2CE95E-BDC6-4EEC-A100-0CDEC55EE502}">
-  <dimension ref="A1:C491"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404:C404"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3605,15 +3612,15 @@
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3621,7 +3628,7 @@
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -3629,7 +3636,7 @@
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -3637,7 +3644,7 @@
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3645,7 +3652,7 @@
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3653,7 +3660,7 @@
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -3661,7 +3668,7 @@
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3669,7 +3676,7 @@
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3677,7 +3684,7 @@
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3685,7 +3692,7 @@
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -3693,7 +3700,7 @@
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3701,7 +3708,7 @@
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -3709,7 +3716,7 @@
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3717,7 +3724,7 @@
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3725,7 +3732,7 @@
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3733,7 +3740,7 @@
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -3741,7 +3748,7 @@
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3749,7 +3756,7 @@
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -3757,7 +3764,7 @@
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3765,7 +3772,7 @@
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -3773,7 +3780,7 @@
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -3781,7 +3788,7 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -3789,7 +3796,7 @@
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3797,7 +3804,7 @@
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3805,7 +3812,7 @@
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3813,7 +3820,7 @@
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3821,7 +3828,7 @@
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3829,7 +3836,7 @@
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3837,7 +3844,7 @@
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3845,7 +3852,7 @@
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3853,7 +3860,7 @@
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3861,7 +3868,7 @@
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3869,7 +3876,7 @@
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3877,7 +3884,7 @@
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3885,7 +3892,7 @@
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3893,7 +3900,7 @@
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3901,7 +3908,7 @@
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3909,7 +3916,7 @@
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3917,7 +3924,7 @@
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3925,7 +3932,7 @@
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3933,7 +3940,7 @@
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3941,7 +3948,7 @@
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3949,7 +3956,7 @@
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3957,7 +3964,7 @@
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -3981,7 +3988,7 @@
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3989,7 +3996,7 @@
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -3997,7 +4004,7 @@
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -4005,7 +4012,7 @@
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4021,7 +4028,7 @@
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4029,7 +4036,7 @@
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -4037,7 +4044,7 @@
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4045,7 +4052,7 @@
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4053,7 +4060,7 @@
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -4069,7 +4076,7 @@
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4077,7 +4084,7 @@
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4085,7 +4092,7 @@
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4093,7 +4100,7 @@
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -4101,7 +4108,7 @@
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4109,7 +4116,7 @@
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4117,7 +4124,7 @@
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4125,7 +4132,7 @@
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4133,7 +4140,7 @@
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4141,7 +4148,7 @@
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4149,7 +4156,7 @@
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B283" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4157,7 +4164,7 @@
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4165,7 +4172,7 @@
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4173,7 +4180,7 @@
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4181,7 +4188,7 @@
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -4189,7 +4196,7 @@
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -4197,7 +4204,7 @@
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -4205,7 +4212,7 @@
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -4213,7 +4220,7 @@
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -4221,7 +4228,7 @@
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -4229,15 +4236,15 @@
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -4245,7 +4252,7 @@
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4253,7 +4260,7 @@
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4261,7 +4268,7 @@
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4269,7 +4276,7 @@
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -4277,7 +4284,7 @@
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -4285,7 +4292,7 @@
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -4293,7 +4300,7 @@
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -4301,7 +4308,7 @@
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4309,7 +4316,7 @@
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4317,7 +4324,7 @@
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4325,7 +4332,7 @@
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -4333,7 +4340,7 @@
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4341,7 +4348,7 @@
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -4349,7 +4356,7 @@
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -4357,7 +4364,7 @@
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4365,7 +4372,7 @@
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -4373,7 +4380,7 @@
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4381,7 +4388,7 @@
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -4389,7 +4396,7 @@
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -4397,7 +4404,7 @@
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -4405,7 +4412,7 @@
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -4413,7 +4420,7 @@
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -4421,7 +4428,7 @@
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -4429,7 +4436,7 @@
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -4437,7 +4444,7 @@
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -4445,7 +4452,7 @@
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -4453,7 +4460,7 @@
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -4461,7 +4468,7 @@
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -4469,7 +4476,7 @@
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -4477,7 +4484,7 @@
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -4485,7 +4492,7 @@
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -4493,7 +4500,7 @@
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -4501,7 +4508,7 @@
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -4509,7 +4516,7 @@
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -4517,7 +4524,7 @@
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -4525,7 +4532,7 @@
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4533,7 +4540,7 @@
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4541,7 +4548,7 @@
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -4549,7 +4556,7 @@
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -4557,7 +4564,7 @@
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -4565,7 +4572,7 @@
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -4573,7 +4580,7 @@
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4581,7 +4588,7 @@
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -4589,7 +4596,7 @@
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -4597,7 +4604,7 @@
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -4605,7 +4612,7 @@
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4613,7 +4620,7 @@
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4621,7 +4628,7 @@
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4629,7 +4636,7 @@
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4637,7 +4644,7 @@
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -4645,7 +4652,7 @@
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -4653,7 +4660,7 @@
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -4661,7 +4668,7 @@
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -4669,7 +4676,7 @@
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -4677,7 +4684,7 @@
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -4685,7 +4692,7 @@
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -4693,7 +4700,7 @@
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4701,7 +4708,7 @@
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4709,7 +4716,7 @@
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -4717,7 +4724,7 @@
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -4725,7 +4732,7 @@
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -4733,7 +4740,7 @@
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4741,7 +4748,7 @@
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4749,7 +4756,7 @@
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -4757,7 +4764,7 @@
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -4765,7 +4772,7 @@
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -4773,7 +4780,7 @@
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -4781,7 +4788,7 @@
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -4789,7 +4796,7 @@
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4797,7 +4804,7 @@
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -4805,7 +4812,7 @@
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -4813,7 +4820,7 @@
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4821,7 +4828,7 @@
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4829,7 +4836,7 @@
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -4837,7 +4844,7 @@
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -4845,7 +4852,7 @@
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -4853,7 +4860,7 @@
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -4861,7 +4868,7 @@
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -4869,7 +4876,7 @@
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4877,7 +4884,7 @@
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4885,7 +4892,7 @@
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -4893,7 +4900,7 @@
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4901,7 +4908,7 @@
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -4909,7 +4916,7 @@
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -4917,7 +4924,7 @@
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -4925,7 +4932,7 @@
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -4933,7 +4940,7 @@
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -4941,7 +4948,7 @@
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4949,7 +4956,7 @@
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -4957,7 +4964,7 @@
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -4965,7 +4972,7 @@
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -4973,7 +4980,7 @@
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4981,7 +4988,7 @@
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4989,7 +4996,7 @@
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -4997,7 +5004,7 @@
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -5005,7 +5012,7 @@
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -5013,7 +5020,7 @@
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -5021,7 +5028,7 @@
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -5029,7 +5036,7 @@
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -5037,7 +5044,7 @@
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -5045,7 +5052,7 @@
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -5053,7 +5060,7 @@
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -5061,7 +5068,7 @@
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -5069,7 +5076,7 @@
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -5077,7 +5084,7 @@
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -5085,7 +5092,7 @@
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -5093,7 +5100,7 @@
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -5101,7 +5108,7 @@
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -5109,7 +5116,7 @@
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -5124,24 +5131,24 @@
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B405">
-        <v>201731843</v>
+      <c r="B405" t="s">
+        <v>481</v>
       </c>
       <c r="C405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B406">
-        <v>201736984</v>
+      <c r="B406" t="s">
+        <v>482</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B407">
-        <v>201737644</v>
+        <v>201731843</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -5149,7 +5156,7 @@
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B408">
-        <v>201754761</v>
+        <v>201736984</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -5157,7 +5164,7 @@
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B409">
-        <v>201755111</v>
+        <v>201737644</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -5165,7 +5172,7 @@
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B410">
-        <v>201757722</v>
+        <v>201754761</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -5173,23 +5180,23 @@
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B411">
+        <v>201755111</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>201757722</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B413">
         <v>201768471</v>
-      </c>
-      <c r="C411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B412" t="s">
-        <v>48</v>
-      </c>
-      <c r="C412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B413" t="s">
-        <v>471</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -5197,7 +5204,7 @@
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -5205,7 +5212,7 @@
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
-        <v>66</v>
+        <v>470</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -5213,7 +5220,7 @@
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
-        <v>472</v>
+        <v>64</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -5221,7 +5228,7 @@
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
-        <v>473</v>
+        <v>66</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -5229,7 +5236,7 @@
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
-        <v>3</v>
+        <v>472</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -5245,7 +5252,7 @@
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -5253,15 +5260,15 @@
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -5269,15 +5276,15 @@
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -5285,7 +5292,7 @@
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -5293,7 +5300,7 @@
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -5301,7 +5308,7 @@
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -5309,7 +5316,7 @@
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -5317,7 +5324,7 @@
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -5325,7 +5332,7 @@
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -5333,7 +5340,7 @@
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -5341,7 +5348,7 @@
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -5349,7 +5356,7 @@
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -5357,7 +5364,7 @@
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -5365,7 +5372,7 @@
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
-        <v>474</v>
+        <v>17</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -5373,7 +5380,7 @@
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -5381,7 +5388,7 @@
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
-        <v>20</v>
+        <v>473</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -5389,7 +5396,7 @@
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -5397,15 +5404,15 @@
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -5413,15 +5420,15 @@
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -5429,7 +5436,7 @@
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -5437,7 +5444,7 @@
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -5445,7 +5452,7 @@
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -5453,7 +5460,7 @@
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -5461,7 +5468,7 @@
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -5469,7 +5476,7 @@
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
-        <v>475</v>
+        <v>29</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -5477,7 +5484,7 @@
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -5485,7 +5492,7 @@
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -5493,7 +5500,7 @@
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -5501,7 +5508,7 @@
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
-        <v>476</v>
+        <v>32</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -5509,7 +5516,7 @@
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
-        <v>477</v>
+        <v>33</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -5517,7 +5524,7 @@
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
-        <v>34</v>
+        <v>475</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -5525,15 +5532,15 @@
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
-        <v>35</v>
+        <v>476</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -5541,15 +5548,15 @@
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -5557,7 +5564,7 @@
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -5565,7 +5572,7 @@
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -5573,31 +5580,31 @@
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -5605,7 +5612,7 @@
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
-        <v>478</v>
+        <v>43</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -5613,7 +5620,7 @@
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -5621,31 +5628,31 @@
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>46</v>
+        <v>477</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -5653,7 +5660,7 @@
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -5661,7 +5668,7 @@
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
-        <v>479</v>
+        <v>50</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -5669,7 +5676,7 @@
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -5677,7 +5684,7 @@
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
-        <v>53</v>
+        <v>478</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -5685,7 +5692,7 @@
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -5693,7 +5700,7 @@
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -5701,7 +5708,7 @@
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -5709,7 +5716,7 @@
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -5717,15 +5724,15 @@
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -5733,15 +5740,15 @@
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -5749,7 +5756,7 @@
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -5757,15 +5764,15 @@
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -5773,15 +5780,15 @@
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="C486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -5789,7 +5796,7 @@
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
-        <v>68</v>
+        <v>479</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -5797,7 +5804,7 @@
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -5805,7 +5812,7 @@
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -5813,9 +5820,25 @@
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
+        <v>69</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>70</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
         <v>71</v>
       </c>
-      <c r="C491">
+      <c r="C493">
         <v>0</v>
       </c>
     </row>
@@ -5827,7 +5850,7 @@
   <conditionalFormatting sqref="B283:B403">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B404:B490">
+  <conditionalFormatting sqref="B407:B492 B404">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
